--- a/10-20-24 to 10-26-24 Madison Schedule.xlsx
+++ b/10-20-24 to 10-26-24 Madison Schedule.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,7 +537,7 @@
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -568,7 +568,7 @@
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -599,7 +599,7 @@
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -630,7 +630,7 @@
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -661,7 +661,7 @@
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -2489,9 +2489,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Driver,
-Gray Van,
-Rx</t>
+          <t>Driver, Gray Van, Rx</t>
         </is>
       </c>
       <c r="P37" t="inlineStr"/>
@@ -3675,7 +3673,7 @@
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t xml:space="preserve">DC5-ITEM LEVEL </t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -3762,7 +3760,7 @@
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>Nataun</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="W56" t="inlineStr">
@@ -3829,12 +3827,13 @@
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Stephanie</t>
         </is>
       </c>
       <c r="W57" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Until 10:00</t>
         </is>
       </c>
       <c r="X57" t="inlineStr"/>
@@ -3890,22 +3889,9 @@
       </c>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="V58" t="inlineStr">
-        <is>
-          <t>Stephanie</t>
-        </is>
-      </c>
-      <c r="W58" t="inlineStr">
-        <is>
-          <t>@ Store,
-Until 10:00</t>
-        </is>
-      </c>
+      <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
     </row>
@@ -3998,7 +3984,11 @@
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
-      <c r="V60" t="inlineStr"/>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6:00 AM START </t>
+        </is>
+      </c>
       <c r="W60" t="inlineStr"/>
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr"/>
@@ -4039,7 +4029,7 @@
       <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr">
         <is>
-          <t xml:space="preserve">6:00 AM START </t>
+          <t xml:space="preserve">DC5-FINANCIAL  </t>
         </is>
       </c>
       <c r="W61" t="inlineStr"/>
@@ -4095,7 +4085,7 @@
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL  </t>
+          <t>ROTE OIL #14 TREVOR (CITGO)</t>
         </is>
       </c>
       <c r="W62" t="inlineStr"/>
@@ -4154,7 +4144,7 @@
       <c r="U63" t="inlineStr"/>
       <c r="V63" t="inlineStr">
         <is>
-          <t>ROTE OIL #14 TREVOR (CITGO)</t>
+          <t>12617 ANTIOCH RD</t>
         </is>
       </c>
       <c r="W63" t="inlineStr"/>
@@ -4213,7 +4203,7 @@
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr">
         <is>
-          <t>12617 ANTIOCH RD</t>
+          <t>https://goo.gl/maps/xA9YMzPGc6Vhxi5r8</t>
         </is>
       </c>
       <c r="W64" t="inlineStr"/>
@@ -4272,7 +4262,7 @@
       <c r="U65" t="inlineStr"/>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/xA9YMzPGc6Vhxi5r8</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="W65" t="inlineStr"/>
@@ -4327,7 +4317,7 @@
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W66" t="inlineStr"/>
@@ -4370,7 +4360,7 @@
       <c r="U67" t="inlineStr"/>
       <c r="V67" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>ROTE OIL #13 TREVOR (BP)</t>
         </is>
       </c>
       <c r="W67" t="inlineStr"/>
@@ -4413,7 +4403,7 @@
       <c r="U68" t="inlineStr"/>
       <c r="V68" t="inlineStr">
         <is>
-          <t>ROTE OIL #13 TREVOR (BP)</t>
+          <t>12511 ANTIOCH RD</t>
         </is>
       </c>
       <c r="W68" t="inlineStr"/>
@@ -4460,7 +4450,7 @@
       <c r="U69" t="inlineStr"/>
       <c r="V69" t="inlineStr">
         <is>
-          <t>12511 ANTIOCH RD</t>
+          <t>https://goo.gl/maps/iu3xzNwgJ32esP5RA</t>
         </is>
       </c>
       <c r="W69" t="inlineStr"/>
@@ -4505,11 +4495,7 @@
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr"/>
-      <c r="V70" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/iu3xzNwgJ32esP5RA</t>
-        </is>
-      </c>
+      <c r="V70" t="inlineStr"/>
       <c r="W70" t="inlineStr"/>
       <c r="X70" t="inlineStr"/>
       <c r="Y70" t="inlineStr"/>
@@ -4551,9 +4537,21 @@
       <c r="R71" t="inlineStr"/>
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
-      <c r="U71" t="inlineStr"/>
-      <c r="V71" t="inlineStr"/>
-      <c r="W71" t="inlineStr"/>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X71" t="inlineStr"/>
       <c r="Y71" t="inlineStr"/>
     </row>
@@ -4596,17 +4594,17 @@
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="W72" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X72" t="inlineStr"/>
@@ -4649,21 +4647,9 @@
       <c r="R73" t="inlineStr"/>
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
-      <c r="U73" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="V73" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="W73" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U73" t="inlineStr"/>
+      <c r="V73" t="inlineStr"/>
+      <c r="W73" t="inlineStr"/>
       <c r="X73" t="inlineStr"/>
       <c r="Y73" t="inlineStr"/>
     </row>
@@ -4724,7 +4710,11 @@
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr"/>
-      <c r="V75" t="inlineStr"/>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="W75" t="inlineStr"/>
       <c r="X75" t="inlineStr"/>
       <c r="Y75" t="inlineStr"/>
@@ -4761,7 +4751,7 @@
       <c r="U76" t="inlineStr"/>
       <c r="V76" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W76" t="inlineStr"/>
@@ -4800,7 +4790,7 @@
       <c r="U77" t="inlineStr"/>
       <c r="V77" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>FESTIVAL #2695, NEW LONDON - LIFO</t>
         </is>
       </c>
       <c r="W77" t="inlineStr"/>
@@ -4839,7 +4829,7 @@
       <c r="U78" t="inlineStr"/>
       <c r="V78" t="inlineStr">
         <is>
-          <t>FESTIVAL #2695, NEW LONDON - LIFO</t>
+          <t>308 N SHAWANO ST</t>
         </is>
       </c>
       <c r="W78" t="inlineStr"/>
@@ -4878,7 +4868,7 @@
       <c r="U79" t="inlineStr"/>
       <c r="V79" t="inlineStr">
         <is>
-          <t>308 N SHAWANO ST</t>
+          <t>https://goo.gl/maps/zqprqLmVpCzdH3s86</t>
         </is>
       </c>
       <c r="W79" t="inlineStr"/>
@@ -4915,11 +4905,7 @@
       <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="inlineStr"/>
-      <c r="V80" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/zqprqLmVpCzdH3s86</t>
-        </is>
-      </c>
+      <c r="V80" t="inlineStr"/>
       <c r="W80" t="inlineStr"/>
       <c r="X80" t="inlineStr"/>
       <c r="Y80" t="inlineStr"/>
@@ -4949,9 +4935,21 @@
       <c r="R81" t="inlineStr"/>
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr"/>
-      <c r="U81" t="inlineStr"/>
-      <c r="V81" t="inlineStr"/>
-      <c r="W81" t="inlineStr"/>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>Jeremiah</t>
+        </is>
+      </c>
+      <c r="W81" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X81" t="inlineStr"/>
       <c r="Y81" t="inlineStr"/>
     </row>
@@ -4994,17 +4992,17 @@
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="W82" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X82" t="inlineStr"/>
@@ -5045,12 +5043,12 @@
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="W83" t="inlineStr">
@@ -5092,12 +5090,12 @@
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="W84" t="inlineStr">
@@ -5155,12 +5153,12 @@
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="W85" t="inlineStr">
@@ -5214,12 +5212,12 @@
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="W86" t="inlineStr">
@@ -5253,12 +5251,12 @@
       <c r="T87" t="inlineStr"/>
       <c r="U87" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="W87" t="inlineStr">
@@ -5292,12 +5290,12 @@
       <c r="T88" t="inlineStr"/>
       <c r="U88" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="W88" t="inlineStr">
@@ -5335,12 +5333,12 @@
       <c r="T89" t="inlineStr"/>
       <c r="U89" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="W89" t="inlineStr">
@@ -5378,12 +5376,12 @@
       <c r="T90" t="inlineStr"/>
       <c r="U90" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="W90" t="inlineStr">
@@ -5421,12 +5419,12 @@
       <c r="T91" t="inlineStr"/>
       <c r="U91" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="W91" t="inlineStr">
@@ -5464,12 +5462,12 @@
       <c r="T92" t="inlineStr"/>
       <c r="U92" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Serena</t>
         </is>
       </c>
       <c r="W92" t="inlineStr">
@@ -5507,12 +5505,12 @@
       <c r="T93" t="inlineStr"/>
       <c r="U93" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>Serena</t>
+          <t>Terri</t>
         </is>
       </c>
       <c r="W93" t="inlineStr">
@@ -5548,21 +5546,9 @@
       <c r="R94" t="inlineStr"/>
       <c r="S94" t="inlineStr"/>
       <c r="T94" t="inlineStr"/>
-      <c r="U94" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="V94" t="inlineStr">
-        <is>
-          <t>Terri</t>
-        </is>
-      </c>
-      <c r="W94" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U94" t="inlineStr"/>
+      <c r="V94" t="inlineStr"/>
+      <c r="W94" t="inlineStr"/>
       <c r="X94" t="inlineStr"/>
       <c r="Y94" t="inlineStr"/>
     </row>

--- a/10-20-24 to 10-26-24 Madison Schedule.xlsx
+++ b/10-20-24 to 10-26-24 Madison Schedule.xlsx
@@ -614,7 +614,11 @@
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Optima coming up for maintenance in Cottage Grove</t>
+        </is>
+      </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
@@ -1999,7 +2003,8 @@
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>Driver, 1/2 Gray Van,
+          <t>Driver, 
+Gray Van,
 Trainer</t>
         </is>
       </c>
@@ -2067,8 +2072,8 @@
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>Driver 1/2,
-Gray Van,
+          <t>Driver,
+Optima
 Supv Rx</t>
         </is>
       </c>
@@ -2305,7 +2310,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>@ Store,
+          <t>Driver,
 Optima,
 Equip</t>
         </is>
@@ -2459,15 +2464,10 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Silver Van</t>
-        </is>
-      </c>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
@@ -2523,10 +2523,15 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr"/>
+          <t>Evelin</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Camry 3</t>
+        </is>
+      </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
@@ -2578,7 +2583,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
@@ -2633,15 +2638,10 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>Driver,
-Camry 3</t>
-        </is>
-      </c>
+          <t>Josh S</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
@@ -2701,12 +2701,13 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>3rd week, work w/ Qiana</t>
+          <t>Driver,
+Lexus - swap cars at store</t>
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
@@ -2781,10 +2782,14 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Lorena</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr"/>
+          <t>Kayla</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>3rd week, work w/ Qiana</t>
+        </is>
+      </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
@@ -2857,7 +2862,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Makeda</t>
+          <t>Lorena</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -2924,16 +2929,10 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Silver Van,
-Trainer</t>
-        </is>
-      </c>
+          <t>Makeda</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
@@ -3007,9 +3006,23 @@
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Camry 3,
+Trainer Please bring Computer Box as a back up</t>
+        </is>
+      </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
@@ -3144,11 +3157,7 @@
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
@@ -3213,7 +3222,7 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>MODAS</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
@@ -3285,7 +3294,7 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>KELLEY #64, CORTLAND MOBIL</t>
+          <t>MODAS</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
@@ -3352,7 +3361,7 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>15 W LINCOLN HWY</t>
+          <t>KELLEY #64, CORTLAND MOBIL</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
@@ -3419,7 +3428,7 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/J3eqmpHTTNT2</t>
+          <t>15 W LINCOLN HWY</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
@@ -3490,7 +3499,7 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>*IL Meet is 5:30 am at IL Office</t>
+          <t>https://goo.gl/maps/J3eqmpHTTNT2</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
@@ -3535,7 +3544,11 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>*IL Meet is 5:30 am at IL Office</t>
+        </is>
+      </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
@@ -3574,21 +3587,9 @@
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
@@ -3647,18 +3648,17 @@
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Mike G</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Gray Van</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="H55" t="inlineStr"/>
@@ -3715,15 +3715,20 @@
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr"/>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Driver,
+Corolla</t>
+        </is>
+      </c>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
@@ -3778,12 +3783,12 @@
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
@@ -3846,7 +3851,7 @@
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3854,12 +3859,7 @@
           <t>Michael N</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Gray Van</t>
-        </is>
-      </c>
+      <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
@@ -3902,7 +3902,7 @@
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3941,7 +3941,7 @@
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4219,7 +4219,7 @@
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>(Prius and Corolla)</t>
+          <t>(Prius and Silver Van)</t>
         </is>
       </c>
       <c r="H65" t="inlineStr"/>

--- a/10-20-24 to 10-26-24 Madison Schedule.xlsx
+++ b/10-20-24 to 10-26-24 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y117"/>
+  <dimension ref="A1:Y119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1923,9 +1923,22 @@
         </is>
       </c>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>@ Store, 
+4th Scan work w/ Anisha</t>
+        </is>
+      </c>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2053,11 +2066,7 @@
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr">
@@ -2117,7 +2126,7 @@
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O30" t="inlineStr"/>
@@ -2176,7 +2185,7 @@
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
-          <t>PICK #417 +RX, WEST BEND - WASHINGTON</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
@@ -2227,7 +2236,7 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>2518 W WASHINGTON STREET</t>
+          <t>PICK #417 +RX, WEST BEND - WASHINGTON</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
@@ -2274,7 +2283,7 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/UGfMgfcMtR22</t>
+          <t>2518 W WASHINGTON STREET</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
@@ -2327,7 +2336,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>*IL Meet is 4:15 am at IL Office</t>
+          <t>https://goo.gl/maps/UGfMgfcMtR22</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
@@ -2372,7 +2381,11 @@
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>*IL Meet is 4:15 am at IL Office</t>
+        </is>
+      </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
@@ -2418,21 +2431,9 @@
       </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
@@ -2479,17 +2480,17 @@
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Driver, Gray Van, Rx</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="P37" t="inlineStr"/>
@@ -2543,15 +2544,19 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr"/>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Driver, Gray Van, Rx</t>
+        </is>
+      </c>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
@@ -2594,19 +2599,15 @@
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
@@ -2661,17 +2662,18 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Curt</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="P40" t="inlineStr"/>
@@ -2729,12 +2731,12 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Curt</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -2810,12 +2812,12 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -2885,12 +2887,12 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -2953,12 +2955,12 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -3042,18 +3044,17 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Justin Learned</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P45" t="inlineStr"/>
@@ -3114,17 +3115,18 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="P46" t="inlineStr"/>
@@ -3178,12 +3180,12 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -3245,17 +3247,18 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Robyn</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+3rd Scan, work w/ Carlie</t>
         </is>
       </c>
       <c r="P48" t="inlineStr"/>
@@ -3317,12 +3320,12 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -3384,12 +3387,12 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>Robyn</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -3451,12 +3454,12 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -3504,13 +3507,38 @@
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>@ Store,
+3rd Scan</t>
+        </is>
+      </c>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Stephanie</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
@@ -3532,7 +3560,8 @@
       </c>
       <c r="W52" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="X52" t="inlineStr"/>
@@ -3555,9 +3584,21 @@
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
-      <c r="O53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>17)</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr"/>
@@ -3592,19 +3633,11 @@
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr">
@@ -3635,7 +3668,8 @@
       </c>
       <c r="W54" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="X54" t="inlineStr"/>
@@ -3665,17 +3699,13 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DC5-ITEM LEVEL </t>
-        </is>
-      </c>
+      <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr">
@@ -3733,7 +3763,7 @@
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>FESTIVAL #2732, APPLETON-NORTHLAND - LIFO</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K56" t="inlineStr"/>
@@ -3741,7 +3771,7 @@
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>KELLEY #47, FISH HATCHERY MOBIL, MADISON</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -3765,12 +3795,13 @@
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="W56" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+4th Scan, work w/ Jerry</t>
         </is>
       </c>
       <c r="X56" t="inlineStr"/>
@@ -3796,7 +3827,7 @@
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>1200 W NORTHLAND AVE</t>
+          <t>FESTIVAL #2732, APPLETON-NORTHLAND - LIFO</t>
         </is>
       </c>
       <c r="K57" t="inlineStr"/>
@@ -3804,7 +3835,7 @@
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t>2956 FISH HATCHERY RD</t>
+          <t xml:space="preserve">DC5-ITEM LEVEL </t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
@@ -3832,13 +3863,12 @@
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="W57" t="inlineStr">
         <is>
-          <t>@ Store,
-Until 10:00</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X57" t="inlineStr"/>
@@ -3864,7 +3894,7 @@
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/eRWs6b1N24m</t>
+          <t>1200 W NORTHLAND AVE</t>
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
@@ -3872,7 +3902,7 @@
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/vTRibsJKTQs</t>
+          <t>KELLEY #47, FISH HATCHERY MOBIL, MADISON</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
@@ -3889,9 +3919,22 @@
       </c>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr"/>
-      <c r="W58" t="inlineStr"/>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>Stephanie</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>@ Store,
+Until 10:00</t>
+        </is>
+      </c>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
     </row>
@@ -3913,13 +3956,17 @@
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/eRWs6b1N24m</t>
+        </is>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
-          <t>*IL Meet is 5:15 am at IL Office</t>
+          <t>2956 FISH HATCHERY RD</t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
@@ -3928,9 +3975,22 @@
       <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr"/>
-      <c r="V59" t="inlineStr"/>
-      <c r="W59" t="inlineStr"/>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>@ Store,
+2nd week, work w/ Carlie</t>
+        </is>
+      </c>
       <c r="X59" t="inlineStr"/>
       <c r="Y59" t="inlineStr"/>
     </row>
@@ -3955,26 +4015,14 @@
         </is>
       </c>
       <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
-          <t>5:45 am meet for Sarah &amp; Aivy at Wayside Park</t>
+          <t>https://goo.gl/maps/vTRibsJKTQs</t>
         </is>
       </c>
       <c r="O60" t="inlineStr"/>
@@ -3984,11 +4032,7 @@
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
-      <c r="V60" t="inlineStr">
-        <is>
-          <t xml:space="preserve">6:00 AM START </t>
-        </is>
-      </c>
+      <c r="V60" t="inlineStr"/>
       <c r="W60" t="inlineStr"/>
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr"/>
@@ -4004,22 +4048,26 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>*IL Meet is 5:15 am at IL Office</t>
+        </is>
+      </c>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
@@ -4027,11 +4075,7 @@
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DC5-FINANCIAL  </t>
-        </is>
-      </c>
+      <c r="V61" t="inlineStr"/>
       <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
@@ -4047,12 +4091,12 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -4061,22 +4105,13 @@
         </is>
       </c>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>Driver,
-Camry 3</t>
-        </is>
-      </c>
+          <t>5:45 am meet for Sarah &amp; Aivy at Wayside Park</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr"/>
@@ -4085,7 +4120,7 @@
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr">
         <is>
-          <t>ROTE OIL #14 TREVOR (CITGO)</t>
+          <t xml:space="preserve">6:00 AM START </t>
         </is>
       </c>
       <c r="W62" t="inlineStr"/>
@@ -4107,12 +4142,12 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -4121,21 +4156,9 @@
         </is>
       </c>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>Aivy</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>@ Store w/ Sarah</t>
-        </is>
-      </c>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr"/>
@@ -4144,7 +4167,7 @@
       <c r="U63" t="inlineStr"/>
       <c r="V63" t="inlineStr">
         <is>
-          <t>12617 ANTIOCH RD</t>
+          <t xml:space="preserve">DC5-FINANCIAL  </t>
         </is>
       </c>
       <c r="W63" t="inlineStr"/>
@@ -4170,31 +4193,37 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr"/>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>Driver,
+Camry 3</t>
+        </is>
+      </c>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr"/>
@@ -4203,7 +4232,7 @@
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/xA9YMzPGc6Vhxi5r8</t>
+          <t>ROTE OIL #14 TREVOR (CITGO)</t>
         </is>
       </c>
       <c r="W64" t="inlineStr"/>
@@ -4225,12 +4254,12 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -4241,17 +4270,17 @@
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Aivy</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Driver</t>
+          <t>@ Store w/ Sarah</t>
         </is>
       </c>
       <c r="P65" t="inlineStr"/>
@@ -4262,7 +4291,7 @@
       <c r="U65" t="inlineStr"/>
       <c r="V65" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>12617 ANTIOCH RD</t>
         </is>
       </c>
       <c r="W65" t="inlineStr"/>
@@ -4280,12 +4309,12 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -4296,19 +4325,15 @@
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Savannah</t>
-        </is>
-      </c>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr"/>
@@ -4317,7 +4342,7 @@
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>https://goo.gl/maps/xA9YMzPGc6Vhxi5r8</t>
         </is>
       </c>
       <c r="W66" t="inlineStr"/>
@@ -4335,12 +4360,12 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -4349,9 +4374,21 @@
         </is>
       </c>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
-      <c r="O67" t="inlineStr"/>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>Driver</t>
+        </is>
+      </c>
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr"/>
       <c r="R67" t="inlineStr"/>
@@ -4360,7 +4397,7 @@
       <c r="U67" t="inlineStr"/>
       <c r="V67" t="inlineStr">
         <is>
-          <t>ROTE OIL #13 TREVOR (BP)</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="W67" t="inlineStr"/>
@@ -4378,12 +4415,12 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -4392,9 +4429,21 @@
         </is>
       </c>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
-      <c r="O68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>Savannah</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr"/>
@@ -4403,7 +4452,7 @@
       <c r="U68" t="inlineStr"/>
       <c r="V68" t="inlineStr">
         <is>
-          <t>12511 ANTIOCH RD</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W68" t="inlineStr"/>
@@ -4421,12 +4470,12 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -4436,11 +4485,7 @@
       </c>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr"/>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>5:30 AM START</t>
-        </is>
-      </c>
+      <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr"/>
@@ -4450,7 +4495,7 @@
       <c r="U69" t="inlineStr"/>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/iu3xzNwgJ32esP5RA</t>
+          <t>ROTE OIL #13 TREVOR (BP)</t>
         </is>
       </c>
       <c r="W69" t="inlineStr"/>
@@ -4468,26 +4513,23 @@
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Robyn</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, 
+4th Financial, work w/ Carlie</t>
         </is>
       </c>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DC5-FINANCIAL  </t>
-        </is>
-      </c>
+      <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
@@ -4495,7 +4537,11 @@
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr"/>
-      <c r="V70" t="inlineStr"/>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>12511 ANTIOCH RD</t>
+        </is>
+      </c>
       <c r="W70" t="inlineStr"/>
       <c r="X70" t="inlineStr"/>
       <c r="Y70" t="inlineStr"/>
@@ -4511,12 +4557,12 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Serena</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -4528,7 +4574,7 @@
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr">
         <is>
-          <t>ROTE OIL #10 MUKWONAGO - ROCHESTER</t>
+          <t>5:30 AM START</t>
         </is>
       </c>
       <c r="O71" t="inlineStr"/>
@@ -4537,21 +4583,13 @@
       <c r="R71" t="inlineStr"/>
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
-      <c r="U71" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="U71" t="inlineStr"/>
       <c r="V71" t="inlineStr">
         <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="W71" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/iu3xzNwgJ32esP5RA</t>
+        </is>
+      </c>
+      <c r="W71" t="inlineStr"/>
       <c r="X71" t="inlineStr"/>
       <c r="Y71" t="inlineStr"/>
     </row>
@@ -4566,12 +4604,12 @@
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Robyn</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -4583,7 +4621,7 @@
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr">
         <is>
-          <t>1060 N ROCHESTER ST</t>
+          <t xml:space="preserve">DC5-FINANCIAL  </t>
         </is>
       </c>
       <c r="O72" t="inlineStr"/>
@@ -4592,21 +4630,9 @@
       <c r="R72" t="inlineStr"/>
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
-      <c r="U72" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="V72" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="W72" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr"/>
+      <c r="W72" t="inlineStr"/>
       <c r="X72" t="inlineStr"/>
       <c r="Y72" t="inlineStr"/>
     </row>
@@ -4621,12 +4647,12 @@
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Serena</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -4638,7 +4664,7 @@
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/dmvR5bTHLs1Cbjcr5</t>
+          <t>ROTE OIL #10 MUKWONAGO - ROCHESTER</t>
         </is>
       </c>
       <c r="O73" t="inlineStr"/>
@@ -4647,9 +4673,21 @@
       <c r="R73" t="inlineStr"/>
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
-      <c r="U73" t="inlineStr"/>
-      <c r="V73" t="inlineStr"/>
-      <c r="W73" t="inlineStr"/>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X73" t="inlineStr"/>
       <c r="Y73" t="inlineStr"/>
     </row>
@@ -4662,14 +4700,26 @@
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW    </t>
+          <t>1060 N ROCHESTER ST</t>
         </is>
       </c>
       <c r="O74" t="inlineStr"/>
@@ -4678,9 +4728,21 @@
       <c r="R74" t="inlineStr"/>
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr"/>
-      <c r="U74" t="inlineStr"/>
-      <c r="V74" t="inlineStr"/>
-      <c r="W74" t="inlineStr"/>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X74" t="inlineStr"/>
       <c r="Y74" t="inlineStr"/>
     </row>
@@ -4693,14 +4755,26 @@
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Taya</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>https://goo.gl/maps/dmvR5bTHLs1Cbjcr5</t>
         </is>
       </c>
       <c r="O75" t="inlineStr"/>
@@ -4710,11 +4784,7 @@
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr"/>
-      <c r="V75" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="V75" t="inlineStr"/>
       <c r="W75" t="inlineStr"/>
       <c r="X75" t="inlineStr"/>
       <c r="Y75" t="inlineStr"/>
@@ -4729,17 +4799,13 @@
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr">
         <is>
-          <t>ROTE OIL #12 MUKWONAGO - (AMOCO) GREENWALD</t>
+          <t xml:space="preserve">TO FOLLOW    </t>
         </is>
       </c>
       <c r="O76" t="inlineStr"/>
@@ -4749,11 +4815,7 @@
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr"/>
-      <c r="V76" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
+      <c r="V76" t="inlineStr"/>
       <c r="W76" t="inlineStr"/>
       <c r="X76" t="inlineStr"/>
       <c r="Y76" t="inlineStr"/>
@@ -4768,17 +4830,13 @@
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>MODAS</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr">
         <is>
-          <t>909 GREENWALD CT</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O77" t="inlineStr"/>
@@ -4790,7 +4848,7 @@
       <c r="U77" t="inlineStr"/>
       <c r="V77" t="inlineStr">
         <is>
-          <t>FESTIVAL #2695, NEW LONDON - LIFO</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="W77" t="inlineStr"/>
@@ -4809,7 +4867,7 @@
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
         <is>
-          <t>KELLEY #21, ROSCOE MOBIL</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="K78" t="inlineStr"/>
@@ -4817,7 +4875,7 @@
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/ejQSLoz2D8EmzKVq6</t>
+          <t>ROTE OIL #12 MUKWONAGO - (AMOCO) GREENWALD</t>
         </is>
       </c>
       <c r="O78" t="inlineStr"/>
@@ -4829,7 +4887,7 @@
       <c r="U78" t="inlineStr"/>
       <c r="V78" t="inlineStr">
         <is>
-          <t>308 N SHAWANO ST</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W78" t="inlineStr"/>
@@ -4848,7 +4906,7 @@
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
-          <t>9789 N SECOND ST</t>
+          <t>MODAS</t>
         </is>
       </c>
       <c r="K79" t="inlineStr"/>
@@ -4856,7 +4914,7 @@
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>909 GREENWALD CT</t>
         </is>
       </c>
       <c r="O79" t="inlineStr"/>
@@ -4868,7 +4926,7 @@
       <c r="U79" t="inlineStr"/>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/zqprqLmVpCzdH3s86</t>
+          <t>FESTIVAL #2695, NEW LONDON - LIFO</t>
         </is>
       </c>
       <c r="W79" t="inlineStr"/>
@@ -4887,7 +4945,7 @@
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/kHAFha26ttH2</t>
+          <t>KELLEY #21, ROSCOE MOBIL</t>
         </is>
       </c>
       <c r="K80" t="inlineStr"/>
@@ -4895,7 +4953,7 @@
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL </t>
+          <t>https://goo.gl/maps/ejQSLoz2D8EmzKVq6</t>
         </is>
       </c>
       <c r="O80" t="inlineStr"/>
@@ -4905,7 +4963,11 @@
       <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="inlineStr"/>
-      <c r="V80" t="inlineStr"/>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>308 N SHAWANO ST</t>
+        </is>
+      </c>
       <c r="W80" t="inlineStr"/>
       <c r="X80" t="inlineStr"/>
       <c r="Y80" t="inlineStr"/>
@@ -4920,13 +4982,17 @@
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>9789 N SECOND ST</t>
+        </is>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr">
         <is>
-          <t>ROTE OIL  #11 MUKWONAGO - (BP) ARROWHEAD</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="O81" t="inlineStr"/>
@@ -4935,21 +5001,13 @@
       <c r="R81" t="inlineStr"/>
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr"/>
-      <c r="U81" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="U81" t="inlineStr"/>
       <c r="V81" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="W81" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/zqprqLmVpCzdH3s86</t>
+        </is>
+      </c>
+      <c r="W81" t="inlineStr"/>
       <c r="X81" t="inlineStr"/>
       <c r="Y81" t="inlineStr"/>
     </row>
@@ -4962,26 +5020,18 @@
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/kHAFha26ttH2</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr"/>
       <c r="N82" t="inlineStr">
         <is>
-          <t>122 ARROWHEAD DR</t>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
         </is>
       </c>
       <c r="O82" t="inlineStr"/>
@@ -4990,21 +5040,9 @@
       <c r="R82" t="inlineStr"/>
       <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr"/>
-      <c r="U82" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="V82" t="inlineStr">
-        <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="W82" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U82" t="inlineStr"/>
+      <c r="V82" t="inlineStr"/>
+      <c r="W82" t="inlineStr"/>
       <c r="X82" t="inlineStr"/>
       <c r="Y82" t="inlineStr"/>
     </row>
@@ -5017,22 +5055,14 @@
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>Emily L</t>
-        </is>
-      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr"/>
       <c r="N83" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/7XkTFZtDFDgGBctz7</t>
+          <t>ROTE OIL  #11 MUKWONAGO - (BP) ARROWHEAD</t>
         </is>
       </c>
       <c r="O83" t="inlineStr"/>
@@ -5043,17 +5073,17 @@
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="W83" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="X83" t="inlineStr"/>
@@ -5070,18 +5100,26 @@
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Laci</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr"/>
-      <c r="N84" t="inlineStr"/>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>122 ARROWHEAD DR</t>
+        </is>
+      </c>
       <c r="O84" t="inlineStr"/>
       <c r="P84" t="inlineStr"/>
       <c r="Q84" t="inlineStr"/>
@@ -5090,12 +5128,12 @@
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="W84" t="inlineStr">
@@ -5117,35 +5155,23 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>Until 8:15</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr">
         <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/7XkTFZtDFDgGBctz7</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr"/>
       <c r="P85" t="inlineStr"/>
       <c r="Q85" t="inlineStr"/>
       <c r="R85" t="inlineStr"/>
@@ -5153,12 +5179,12 @@
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="W85" t="inlineStr">
@@ -5180,31 +5206,19 @@
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Tina E</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="N86" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="O86" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr"/>
       <c r="P86" t="inlineStr"/>
       <c r="Q86" t="inlineStr"/>
       <c r="R86" t="inlineStr"/>
@@ -5212,12 +5226,12 @@
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="W86" t="inlineStr">
@@ -5237,13 +5251,37 @@
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>Spencer P</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>Until 8:15</t>
+        </is>
+      </c>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="inlineStr"/>
-      <c r="O87" t="inlineStr"/>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P87" t="inlineStr"/>
       <c r="Q87" t="inlineStr"/>
       <c r="R87" t="inlineStr"/>
@@ -5251,12 +5289,12 @@
       <c r="T87" t="inlineStr"/>
       <c r="U87" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="W87" t="inlineStr">
@@ -5276,13 +5314,33 @@
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="inlineStr"/>
-      <c r="O88" t="inlineStr"/>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P88" t="inlineStr"/>
       <c r="Q88" t="inlineStr"/>
       <c r="R88" t="inlineStr"/>
@@ -5290,12 +5348,12 @@
       <c r="T88" t="inlineStr"/>
       <c r="U88" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="W88" t="inlineStr">
@@ -5320,11 +5378,7 @@
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr"/>
-      <c r="N89" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr"/>
       <c r="P89" t="inlineStr"/>
       <c r="Q89" t="inlineStr"/>
@@ -5333,12 +5387,12 @@
       <c r="T89" t="inlineStr"/>
       <c r="U89" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="W89" t="inlineStr">
@@ -5363,11 +5417,7 @@
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr"/>
-      <c r="N90" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DC5-FINANCIAL   </t>
-        </is>
-      </c>
+      <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr"/>
       <c r="P90" t="inlineStr"/>
       <c r="Q90" t="inlineStr"/>
@@ -5376,12 +5426,12 @@
       <c r="T90" t="inlineStr"/>
       <c r="U90" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="W90" t="inlineStr">
@@ -5408,7 +5458,7 @@
       <c r="M91" t="inlineStr"/>
       <c r="N91" t="inlineStr">
         <is>
-          <t>PIGGLY WIGGLY #243, OSHKOSH</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="O91" t="inlineStr"/>
@@ -5419,12 +5469,12 @@
       <c r="T91" t="inlineStr"/>
       <c r="U91" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="W91" t="inlineStr">
@@ -5451,7 +5501,7 @@
       <c r="M92" t="inlineStr"/>
       <c r="N92" t="inlineStr">
         <is>
-          <t>525 E MURDOCK AVE</t>
+          <t xml:space="preserve">DC5-FINANCIAL   </t>
         </is>
       </c>
       <c r="O92" t="inlineStr"/>
@@ -5462,12 +5512,12 @@
       <c r="T92" t="inlineStr"/>
       <c r="U92" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>Serena</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="W92" t="inlineStr">
@@ -5494,7 +5544,7 @@
       <c r="M93" t="inlineStr"/>
       <c r="N93" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/oCo6AFz8zx12</t>
+          <t>PIGGLY WIGGLY #243, OSHKOSH</t>
         </is>
       </c>
       <c r="O93" t="inlineStr"/>
@@ -5505,12 +5555,12 @@
       <c r="T93" t="inlineStr"/>
       <c r="U93" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>Terri</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="W93" t="inlineStr">
@@ -5537,7 +5587,7 @@
       <c r="M94" t="inlineStr"/>
       <c r="N94" t="inlineStr">
         <is>
-          <t>STORE RESET-</t>
+          <t>525 E MURDOCK AVE</t>
         </is>
       </c>
       <c r="O94" t="inlineStr"/>
@@ -5546,9 +5596,21 @@
       <c r="R94" t="inlineStr"/>
       <c r="S94" t="inlineStr"/>
       <c r="T94" t="inlineStr"/>
-      <c r="U94" t="inlineStr"/>
-      <c r="V94" t="inlineStr"/>
-      <c r="W94" t="inlineStr"/>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>Serena</t>
+        </is>
+      </c>
+      <c r="W94" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X94" t="inlineStr"/>
       <c r="Y94" t="inlineStr"/>
     </row>
@@ -5566,16 +5628,32 @@
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr"/>
-      <c r="N95" t="inlineStr"/>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/oCo6AFz8zx12</t>
+        </is>
+      </c>
       <c r="O95" t="inlineStr"/>
       <c r="P95" t="inlineStr"/>
       <c r="Q95" t="inlineStr"/>
       <c r="R95" t="inlineStr"/>
       <c r="S95" t="inlineStr"/>
       <c r="T95" t="inlineStr"/>
-      <c r="U95" t="inlineStr"/>
-      <c r="V95" t="inlineStr"/>
-      <c r="W95" t="inlineStr"/>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>Terri</t>
+        </is>
+      </c>
+      <c r="W95" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X95" t="inlineStr"/>
       <c r="Y95" t="inlineStr"/>
     </row>
@@ -5592,21 +5670,13 @@
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="M96" t="inlineStr"/>
       <c r="N96" t="inlineStr">
         <is>
-          <t>Jerry S</t>
-        </is>
-      </c>
-      <c r="O96" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>STORE RESET-</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr"/>
       <c r="P96" t="inlineStr"/>
       <c r="Q96" t="inlineStr"/>
       <c r="R96" t="inlineStr"/>
@@ -5631,21 +5701,9 @@
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="N97" t="inlineStr">
-        <is>
-          <t>Josie</t>
-        </is>
-      </c>
-      <c r="O97" t="inlineStr">
-        <is>
-          <t>@ Store w/ Lori</t>
-        </is>
-      </c>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="inlineStr"/>
+      <c r="O97" t="inlineStr"/>
       <c r="P97" t="inlineStr"/>
       <c r="Q97" t="inlineStr"/>
       <c r="R97" t="inlineStr"/>
@@ -5672,17 +5730,17 @@
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>Driver</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="P98" t="inlineStr"/>
@@ -5711,17 +5769,17 @@
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Josie</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store w/ Lori</t>
         </is>
       </c>
       <c r="P99" t="inlineStr"/>
@@ -5750,17 +5808,17 @@
       <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver</t>
         </is>
       </c>
       <c r="P100" t="inlineStr"/>
@@ -5789,12 +5847,12 @@
       <c r="L101" t="inlineStr"/>
       <c r="M101" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
@@ -5828,12 +5886,12 @@
       <c r="L102" t="inlineStr"/>
       <c r="M102" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
@@ -5867,12 +5925,12 @@
       <c r="L103" t="inlineStr"/>
       <c r="M103" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
@@ -5906,12 +5964,12 @@
       <c r="L104" t="inlineStr"/>
       <c r="M104" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>Terri</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
@@ -5943,9 +6001,21 @@
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="inlineStr"/>
-      <c r="O105" t="inlineStr"/>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>Michelle</t>
+        </is>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P105" t="inlineStr"/>
       <c r="Q105" t="inlineStr"/>
       <c r="R105" t="inlineStr"/>
@@ -5970,9 +6040,21 @@
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="inlineStr"/>
-      <c r="O106" t="inlineStr"/>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>Terri</t>
+        </is>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P106" t="inlineStr"/>
       <c r="Q106" t="inlineStr"/>
       <c r="R106" t="inlineStr"/>
@@ -5998,11 +6080,7 @@
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
       <c r="M107" t="inlineStr"/>
-      <c r="N107" t="inlineStr">
-        <is>
-          <t xml:space="preserve">6:30 AM START </t>
-        </is>
-      </c>
+      <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr"/>
       <c r="P107" t="inlineStr"/>
       <c r="Q107" t="inlineStr"/>
@@ -6029,11 +6107,7 @@
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
       <c r="M108" t="inlineStr"/>
-      <c r="N108" t="inlineStr">
-        <is>
-          <t>MODAS</t>
-        </is>
-      </c>
+      <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr"/>
       <c r="P108" t="inlineStr"/>
       <c r="Q108" t="inlineStr"/>
@@ -6062,7 +6136,7 @@
       <c r="M109" t="inlineStr"/>
       <c r="N109" t="inlineStr">
         <is>
-          <t>KELLEY #41, WINNEBAGO MOBIL</t>
+          <t xml:space="preserve">6:30 AM START </t>
         </is>
       </c>
       <c r="O109" t="inlineStr"/>
@@ -6093,7 +6167,7 @@
       <c r="M110" t="inlineStr"/>
       <c r="N110" t="inlineStr">
         <is>
-          <t>903 N ELIDA ST</t>
+          <t>MODAS</t>
         </is>
       </c>
       <c r="O110" t="inlineStr"/>
@@ -6124,7 +6198,7 @@
       <c r="M111" t="inlineStr"/>
       <c r="N111" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/3rdeM7TpraUaa3cc9</t>
+          <t>KELLEY #41, WINNEBAGO MOBIL</t>
         </is>
       </c>
       <c r="O111" t="inlineStr"/>
@@ -6153,7 +6227,11 @@
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
       <c r="M112" t="inlineStr"/>
-      <c r="N112" t="inlineStr"/>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>903 N ELIDA ST</t>
+        </is>
+      </c>
       <c r="O112" t="inlineStr"/>
       <c r="P112" t="inlineStr"/>
       <c r="Q112" t="inlineStr"/>
@@ -6179,21 +6257,13 @@
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="M113" t="inlineStr"/>
       <c r="N113" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="O113" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>https://maps.app.goo.gl/3rdeM7TpraUaa3cc9</t>
+        </is>
+      </c>
+      <c r="O113" t="inlineStr"/>
       <c r="P113" t="inlineStr"/>
       <c r="Q113" t="inlineStr"/>
       <c r="R113" t="inlineStr"/>
@@ -6218,16 +6288,8 @@
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="N114" t="inlineStr">
-        <is>
-          <t>Emily L</t>
-        </is>
-      </c>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr"/>
       <c r="P114" t="inlineStr"/>
       <c r="Q114" t="inlineStr"/>
@@ -6255,15 +6317,19 @@
       <c r="L115" t="inlineStr"/>
       <c r="M115" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="O115" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P115" t="inlineStr"/>
       <c r="Q115" t="inlineStr"/>
       <c r="R115" t="inlineStr"/>
@@ -6290,12 +6356,12 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="O116" t="inlineStr"/>
@@ -6325,12 +6391,12 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>Tina E</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="O117" t="inlineStr"/>
@@ -6345,6 +6411,76 @@
       <c r="X117" t="inlineStr"/>
       <c r="Y117" t="inlineStr"/>
     </row>
+    <row r="118">
+      <c r="A118" t="inlineStr"/>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>Laci</t>
+        </is>
+      </c>
+      <c r="O118" t="inlineStr"/>
+      <c r="P118" t="inlineStr"/>
+      <c r="Q118" t="inlineStr"/>
+      <c r="R118" t="inlineStr"/>
+      <c r="S118" t="inlineStr"/>
+      <c r="T118" t="inlineStr"/>
+      <c r="U118" t="inlineStr"/>
+      <c r="V118" t="inlineStr"/>
+      <c r="W118" t="inlineStr"/>
+      <c r="X118" t="inlineStr"/>
+      <c r="Y118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr"/>
+      <c r="B119" t="inlineStr"/>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="O119" t="inlineStr"/>
+      <c r="P119" t="inlineStr"/>
+      <c r="Q119" t="inlineStr"/>
+      <c r="R119" t="inlineStr"/>
+      <c r="S119" t="inlineStr"/>
+      <c r="T119" t="inlineStr"/>
+      <c r="U119" t="inlineStr"/>
+      <c r="V119" t="inlineStr"/>
+      <c r="W119" t="inlineStr"/>
+      <c r="X119" t="inlineStr"/>
+      <c r="Y119" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/10-20-24 to 10-26-24 Madison Schedule.xlsx
+++ b/10-20-24 to 10-26-24 Madison Schedule.xlsx
@@ -2709,7 +2709,7 @@
       <c r="G41" t="inlineStr">
         <is>
           <t>Driver,
-Lexus - swap cars at store</t>
+Gray Van</t>
         </is>
       </c>
       <c r="H41" t="inlineStr"/>

--- a/10-20-24 to 10-26-24 Madison Schedule.xlsx
+++ b/10-20-24 to 10-26-24 Madison Schedule.xlsx
@@ -1835,12 +1835,12 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Driver, 1/2 Gray Van</t>
+          <t>Driver, 1/2 Optima</t>
         </is>
       </c>
       <c r="L26" t="inlineStr"/>
@@ -1914,12 +1914,14 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Driver, 1/2 Optima</t>
+          <t>Driver, 
+Gray Van,
+Trainer</t>
         </is>
       </c>
       <c r="L27" t="inlineStr"/>
@@ -1990,15 +1992,10 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>Driver, 1/2 Gray Van,
-Trainer</t>
-        </is>
-      </c>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
@@ -2053,16 +2050,8 @@
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
@@ -2179,7 +2168,11 @@
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
@@ -2228,7 +2221,7 @@
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
@@ -2275,7 +2268,7 @@
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>METRO #885 +RX, WAUWATOSA</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
@@ -2328,7 +2321,7 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>METRO #885 +RX, WAUWATOSA</t>
+          <t>6950 W STATE ST</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
@@ -2375,7 +2368,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>6950 W STATE ST</t>
+          <t>https://goo.gl/maps/8KffqM17qkx</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -2426,7 +2419,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/8KffqM17qkx</t>
+          <t>RESET LIQUOR-</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -2473,7 +2466,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>RESET LIQUOR-</t>
+          <t>4:30 am meet for Sarah &amp; Aivy at Wayside Park, then meet Seth</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
@@ -2535,11 +2528,7 @@
       </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>4:30 am meet for Sarah &amp; Aivy at Wayside Park, then meet Seth</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
@@ -2593,9 +2582,21 @@
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
@@ -2646,17 +2647,17 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Aivy</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store w/ Sarah</t>
         </is>
       </c>
       <c r="L40" t="inlineStr"/>
@@ -2715,17 +2716,18 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Aivy</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>@ Store w/ Sarah</t>
+          <t>Driver,
+Supv Rx</t>
         </is>
       </c>
       <c r="L41" t="inlineStr"/>
@@ -2795,18 +2797,17 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Seth</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Driver,
-Supv Rx</t>
+          <t>meet Sarah 5:00 am at Hwy N PnR, 3rd Scan</t>
         </is>
       </c>
       <c r="L42" t="inlineStr"/>
@@ -2871,17 +2872,18 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Seth</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>meet Sarah 5:00 am at Hwy N PnR, 3rd Scan</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="L43" t="inlineStr"/>
@@ -2938,18 +2940,17 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L44" t="inlineStr"/>
@@ -3028,12 +3029,12 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Justin Learned</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3099,12 +3100,12 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3164,12 +3165,12 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3231,12 +3232,12 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3304,12 +3305,12 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Nataun</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3371,12 +3372,12 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Nataun</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3438,17 +3439,18 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+3rd Scan</t>
         </is>
       </c>
       <c r="L51" t="inlineStr"/>
@@ -3507,22 +3509,9 @@
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>@ Store,
-3rd Scan</t>
-        </is>
-      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
@@ -3633,7 +3622,11 @@
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
@@ -3699,7 +3692,7 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K55" t="inlineStr"/>
@@ -3763,7 +3756,7 @@
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>FESTIVAL #2732, APPLETON-NORTHLAND - LIFO</t>
         </is>
       </c>
       <c r="K56" t="inlineStr"/>
@@ -3827,7 +3820,7 @@
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>FESTIVAL #2732, APPLETON-NORTHLAND - LIFO</t>
+          <t>1200 W NORTHLAND AVE</t>
         </is>
       </c>
       <c r="K57" t="inlineStr"/>
@@ -3894,7 +3887,7 @@
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>1200 W NORTHLAND AVE</t>
+          <t>https://goo.gl/maps/eRWs6b1N24m</t>
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
@@ -3956,11 +3949,7 @@
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/eRWs6b1N24m</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
@@ -4015,9 +4004,21 @@
         </is>
       </c>
       <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Jeremiah</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
@@ -4048,17 +4049,17 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L61" t="inlineStr"/>
@@ -4091,12 +4092,12 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -4142,17 +4143,18 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="L63" t="inlineStr"/>
@@ -4193,18 +4195,17 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>@ Store,
-Trainer</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L64" t="inlineStr"/>
@@ -4254,12 +4255,12 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -4309,12 +4310,12 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -4360,12 +4361,12 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -4415,12 +4416,12 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -4470,17 +4471,18 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, 
+4th Financial, work w/ Carlie</t>
         </is>
       </c>
       <c r="L69" t="inlineStr"/>
@@ -4513,18 +4515,17 @@
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>@ Store, 
-4th Financial, work w/ Carlie</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L70" t="inlineStr"/>
@@ -4557,12 +4558,12 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Robyn</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -4604,12 +4605,12 @@
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Robyn</t>
+          <t>Serena</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -4647,12 +4648,12 @@
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Serena</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -4702,12 +4703,12 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -4755,21 +4756,9 @@
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>Taya</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr">
@@ -4830,7 +4819,11 @@
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
@@ -4867,7 +4860,7 @@
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS</t>
         </is>
       </c>
       <c r="K78" t="inlineStr"/>
@@ -4906,7 +4899,7 @@
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
-          <t>MODAS</t>
+          <t>KELLEY #21, ROSCOE MOBIL</t>
         </is>
       </c>
       <c r="K79" t="inlineStr"/>
@@ -4945,7 +4938,7 @@
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
         <is>
-          <t>KELLEY #21, ROSCOE MOBIL</t>
+          <t>9789 N SECOND ST</t>
         </is>
       </c>
       <c r="K80" t="inlineStr"/>
@@ -4984,7 +4977,7 @@
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr">
         <is>
-          <t>9789 N SECOND ST</t>
+          <t>https://goo.gl/maps/kHAFha26ttH2</t>
         </is>
       </c>
       <c r="K81" t="inlineStr"/>
@@ -5021,11 +5014,7 @@
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/kHAFha26ttH2</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr"/>
@@ -5055,9 +5044,21 @@
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr"/>
       <c r="N83" t="inlineStr">
@@ -5100,19 +5101,15 @@
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr"/>
       <c r="N84" t="inlineStr">
@@ -5155,12 +5152,12 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="K85" t="inlineStr"/>
@@ -5206,15 +5203,19 @@
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Laci</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr"/>
+          <t>Spencer P</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>Until 8:15</t>
+        </is>
+      </c>
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr"/>
@@ -5253,19 +5254,15 @@
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>Until 8:15</t>
-        </is>
-      </c>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr">
         <is>
@@ -5314,16 +5311,8 @@
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr">

--- a/10-20-24 to 10-26-24 Madison Schedule.xlsx
+++ b/10-20-24 to 10-26-24 Madison Schedule.xlsx
@@ -4054,7 +4054,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Josie</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -4097,7 +4097,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -4148,13 +4148,12 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>@ Store,
-Trainer</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L63" t="inlineStr"/>
@@ -4200,12 +4199,13 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="L64" t="inlineStr"/>
@@ -4260,7 +4260,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -4315,7 +4315,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -4366,7 +4366,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -4421,7 +4421,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -4476,13 +4476,12 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>@ Store, 
-4th Financial, work w/ Carlie</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L69" t="inlineStr"/>
@@ -4520,12 +4519,13 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, 
+4th Financial, work w/ Carlie</t>
         </is>
       </c>
       <c r="L70" t="inlineStr"/>
@@ -4563,7 +4563,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Robyn</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -4610,7 +4610,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Serena</t>
+          <t>Robyn</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -4653,7 +4653,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Serena</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -4708,7 +4708,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -4756,9 +4756,21 @@
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Taya</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr">
@@ -4819,11 +4831,7 @@
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
@@ -4860,7 +4868,7 @@
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
         <is>
-          <t>MODAS</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="K78" t="inlineStr"/>
@@ -4899,7 +4907,7 @@
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
-          <t>KELLEY #21, ROSCOE MOBIL</t>
+          <t>MODAS</t>
         </is>
       </c>
       <c r="K79" t="inlineStr"/>
@@ -4938,7 +4946,7 @@
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
         <is>
-          <t>9789 N SECOND ST</t>
+          <t>KELLEY #21, ROSCOE MOBIL</t>
         </is>
       </c>
       <c r="K80" t="inlineStr"/>
@@ -4977,7 +4985,7 @@
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/kHAFha26ttH2</t>
+          <t>9789 N SECOND ST</t>
         </is>
       </c>
       <c r="K81" t="inlineStr"/>
@@ -5014,7 +5022,11 @@
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/kHAFha26ttH2</t>
+        </is>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr"/>
@@ -5044,21 +5056,9 @@
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr"/>
       <c r="N83" t="inlineStr">
@@ -5101,15 +5101,19 @@
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr"/>
       <c r="N84" t="inlineStr">
@@ -5152,12 +5156,12 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="K85" t="inlineStr"/>
@@ -5203,19 +5207,15 @@
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>Until 8:15</t>
-        </is>
-      </c>
+          <t>Laci</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr"/>
@@ -5254,15 +5254,19 @@
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr"/>
+          <t>Spencer P</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>Until 8:15</t>
+        </is>
+      </c>
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr">
         <is>
@@ -5311,8 +5315,16 @@
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr">

--- a/10-20-24 to 10-26-24 Madison Schedule.xlsx
+++ b/10-20-24 to 10-26-24 Madison Schedule.xlsx
@@ -4610,7 +4610,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Robyn</t>
+          <t>Serena</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -4653,7 +4653,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Serena</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -4708,7 +4708,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -4756,21 +4756,9 @@
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>Taya</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr">
@@ -4831,7 +4819,11 @@
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
@@ -4868,7 +4860,7 @@
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS</t>
         </is>
       </c>
       <c r="K78" t="inlineStr"/>
@@ -4907,7 +4899,7 @@
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
-          <t>MODAS</t>
+          <t>KELLEY #21, ROSCOE MOBIL</t>
         </is>
       </c>
       <c r="K79" t="inlineStr"/>
@@ -4946,7 +4938,7 @@
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
         <is>
-          <t>KELLEY #21, ROSCOE MOBIL</t>
+          <t>9789 N SECOND ST</t>
         </is>
       </c>
       <c r="K80" t="inlineStr"/>
@@ -4985,7 +4977,7 @@
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr">
         <is>
-          <t>9789 N SECOND ST</t>
+          <t>https://goo.gl/maps/kHAFha26ttH2</t>
         </is>
       </c>
       <c r="K81" t="inlineStr"/>
@@ -5022,11 +5014,7 @@
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/kHAFha26ttH2</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr"/>
@@ -5056,9 +5044,21 @@
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr"/>
       <c r="N83" t="inlineStr">
@@ -5101,19 +5101,15 @@
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr"/>
       <c r="N84" t="inlineStr">
@@ -5156,12 +5152,12 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="K85" t="inlineStr"/>
@@ -5207,15 +5203,19 @@
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Laci</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr"/>
+          <t>Spencer P</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>Until 8:15</t>
+        </is>
+      </c>
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr"/>
@@ -5254,19 +5254,15 @@
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>Until 8:15</t>
-        </is>
-      </c>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr">
         <is>
@@ -5315,16 +5311,8 @@
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr">

--- a/10-20-24 to 10-26-24 Madison Schedule.xlsx
+++ b/10-20-24 to 10-26-24 Madison Schedule.xlsx
@@ -2419,7 +2419,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>RESET LIQUOR-</t>
+          <t xml:space="preserve">LIQUOR RESET-REMAPPED </t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>

--- a/10-20-24 to 10-26-24 Madison Schedule.xlsx
+++ b/10-20-24 to 10-26-24 Madison Schedule.xlsx
@@ -3034,12 +3034,13 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Late arrival, after appt</t>
         </is>
       </c>
       <c r="L45" t="inlineStr"/>
@@ -3105,7 +3106,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Justin Learned</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3170,7 +3171,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3237,7 +3238,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3310,7 +3311,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Nataun</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3377,7 +3378,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Nataun</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3444,13 +3445,12 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>@ Store,
-3rd Scan</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L51" t="inlineStr"/>
@@ -3509,9 +3509,22 @@
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>@ Store,
+3rd Scan</t>
+        </is>
+      </c>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
@@ -3622,11 +3635,7 @@
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
@@ -3692,7 +3701,7 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="K55" t="inlineStr"/>
@@ -3756,7 +3765,7 @@
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>FESTIVAL #2732, APPLETON-NORTHLAND - LIFO</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K56" t="inlineStr"/>
@@ -3820,7 +3829,7 @@
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>1200 W NORTHLAND AVE</t>
+          <t>FESTIVAL #2732, APPLETON-NORTHLAND - LIFO</t>
         </is>
       </c>
       <c r="K57" t="inlineStr"/>
@@ -3887,7 +3896,7 @@
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/eRWs6b1N24m</t>
+          <t>1200 W NORTHLAND AVE</t>
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
@@ -3949,7 +3958,11 @@
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/eRWs6b1N24m</t>
+        </is>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
@@ -4004,21 +4017,9 @@
         </is>
       </c>
       <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
@@ -4049,17 +4050,17 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Josie</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="L61" t="inlineStr"/>
@@ -4092,12 +4093,12 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Josie</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -4143,12 +4144,12 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -4194,18 +4195,17 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>@ Store,
-Trainer</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L64" t="inlineStr"/>
@@ -4255,17 +4255,18 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="L65" t="inlineStr"/>
@@ -4310,12 +4311,12 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -4361,12 +4362,12 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -4416,12 +4417,12 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -4471,12 +4472,12 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -4514,18 +4515,17 @@
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>@ Store, 
-4th Financial, work w/ Carlie</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L70" t="inlineStr"/>
@@ -4558,17 +4558,18 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, 
+4th Financial, work w/ Carlie</t>
         </is>
       </c>
       <c r="L71" t="inlineStr"/>
@@ -4605,12 +4606,12 @@
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Serena</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -4648,12 +4649,12 @@
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Serena</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -4703,7 +4704,7 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">

--- a/10-20-24 to 10-26-24 Madison Schedule.xlsx
+++ b/10-20-24 to 10-26-24 Madison Schedule.xlsx
@@ -1187,11 +1187,7 @@
           <t>Anisha</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>Trainer</t>
-        </is>
-      </c>
+      <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
@@ -2120,21 +2116,9 @@
       </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>Seth</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>@ Store, work w/ Anisha</t>
-        </is>
-      </c>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
         <is>
@@ -2235,7 +2219,11 @@
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
@@ -2284,7 +2272,7 @@
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S33" t="inlineStr"/>
@@ -2337,7 +2325,7 @@
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>KELLEY #53, MIDDLETON MOBIL</t>
         </is>
       </c>
       <c r="S34" t="inlineStr"/>
@@ -2384,7 +2372,7 @@
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>KELLEY #53, MIDDLETON MOBIL</t>
+          <t>8613 UNIVERSITY GREEN</t>
         </is>
       </c>
       <c r="S35" t="inlineStr"/>
@@ -2431,7 +2419,7 @@
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>8613 UNIVERSITY GREEN</t>
+          <t>https://goo.gl/maps/btWWBCtemW22</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
@@ -2490,7 +2478,7 @@
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/btWWBCtemW22</t>
+          <t>*IL Meet is 5:15 am at IL Office</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -2550,7 +2538,7 @@
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>*IL Meet is 5:15 am at IL Office</t>
+          <t>5:45 am meet for Sarah &amp; Aivy at Wayside Park</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
@@ -2611,11 +2599,7 @@
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>5:45 am meet for Sarah &amp; Aivy at Wayside Park</t>
-        </is>
-      </c>
+      <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
@@ -2678,9 +2662,22 @@
         </is>
       </c>
       <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Driver,
+Camry 3, Equip</t>
+        </is>
+      </c>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr">
@@ -2749,18 +2746,17 @@
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Aivy</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>Driver,
-Camry 3, Equip</t>
+          <t>@ Store w/ Sarah</t>
         </is>
       </c>
       <c r="T41" t="inlineStr"/>
@@ -2829,19 +2825,15 @@
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Aivy</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>@ Store w/ Sarah</t>
-        </is>
-      </c>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr">
@@ -2905,15 +2897,19 @@
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr"/>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Driver</t>
+        </is>
+      </c>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr"/>
@@ -2972,19 +2968,15 @@
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>Driver</t>
-        </is>
-      </c>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
@@ -3060,16 +3052,8 @@
         </is>
       </c>
       <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
@@ -3197,7 +3181,11 @@
       </c>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
@@ -3267,7 +3255,7 @@
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS</t>
         </is>
       </c>
       <c r="S48" t="inlineStr"/>
@@ -3339,7 +3327,7 @@
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
         <is>
-          <t>MODAS</t>
+          <t>KELLEY #40, MARKETSIDE MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="S49" t="inlineStr"/>
@@ -3406,7 +3394,7 @@
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr">
         <is>
-          <t>KELLEY #40, MARKETSIDE MOBIL, ROCKFORD</t>
+          <t>5810 E STATE ST</t>
         </is>
       </c>
       <c r="S50" t="inlineStr"/>
@@ -3473,7 +3461,7 @@
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr">
         <is>
-          <t>5810 E STATE ST</t>
+          <t>https://goo.gl/maps/q7CN8T4aEcR2</t>
         </is>
       </c>
       <c r="S51" t="inlineStr"/>
@@ -3543,11 +3531,7 @@
       </c>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/q7CN8T4aEcR2</t>
-        </is>
-      </c>
+      <c r="R52" t="inlineStr"/>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr">
@@ -3602,9 +3586,21 @@
         </is>
       </c>
       <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr">
         <is>
@@ -3644,19 +3640,15 @@
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr">
         <is>
@@ -3712,12 +3704,12 @@
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="S55" t="inlineStr"/>
@@ -3780,15 +3772,19 @@
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Laci</t>
-        </is>
-      </c>
-      <c r="S56" t="inlineStr"/>
+          <t>Spencer P</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>Until 8:15</t>
+        </is>
+      </c>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr">
         <is>
@@ -3844,19 +3840,15 @@
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>Until 8:15</t>
-        </is>
-      </c>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr">
         <is>
@@ -3909,16 +3901,8 @@
       </c>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr">

--- a/10-20-24 to 10-26-24 Madison Schedule.xlsx
+++ b/10-20-24 to 10-26-24 Madison Schedule.xlsx
@@ -5647,7 +5647,7 @@
       <c r="M96" t="inlineStr"/>
       <c r="N96" t="inlineStr">
         <is>
-          <t>STORE RESET-</t>
+          <t>STORE RESET-REMAPPED</t>
         </is>
       </c>
       <c r="O96" t="inlineStr"/>

--- a/10-20-24 to 10-26-24 Madison Schedule.xlsx
+++ b/10-20-24 to 10-26-24 Madison Schedule.xlsx
@@ -1123,7 +1123,11 @@
           <t>Anisha</t>
         </is>
       </c>
-      <c r="W16" t="inlineStr"/>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
     </row>
@@ -1203,7 +1207,7 @@
         <is>
           <t>Driver,
 Silver Van,
-Trainer</t>
+Supv Rx</t>
         </is>
       </c>
       <c r="X17" t="inlineStr"/>
@@ -1587,7 +1591,7 @@
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>3rd week, work w/ Ashley</t>
+          <t>3rd week, work w/ Anisha</t>
         </is>
       </c>
       <c r="X22" t="inlineStr"/>
@@ -2079,13 +2083,12 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X29" t="inlineStr"/>
@@ -2127,7 +2130,7 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
@@ -2178,7 +2181,7 @@
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Robyn</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
@@ -2226,21 +2229,9 @@
       </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>18)</t>
-        </is>
-      </c>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>Robyn</t>
-        </is>
-      </c>
-      <c r="W32" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
     </row>
@@ -2331,7 +2322,11 @@
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
@@ -2380,7 +2375,7 @@
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -2427,7 +2422,7 @@
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>PICK #880 +RX, GLENDALE-SILVER SPRING</t>
         </is>
       </c>
       <c r="W36" t="inlineStr"/>
@@ -2486,7 +2481,7 @@
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
         <is>
-          <t>PICK #880 +RX, GLENDALE-SILVER SPRING</t>
+          <t>1735 W SILVER SPRING</t>
         </is>
       </c>
       <c r="W37" t="inlineStr"/>
@@ -2546,7 +2541,7 @@
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr">
         <is>
-          <t>1735 W SILVER SPRING</t>
+          <t>https://goo.gl/maps/SUc4yjc7BVT2</t>
         </is>
       </c>
       <c r="W38" t="inlineStr"/>
@@ -2605,7 +2600,7 @@
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/SUc4yjc7BVT2</t>
+          <t>SET UP ON REG #1</t>
         </is>
       </c>
       <c r="W39" t="inlineStr"/>
@@ -2682,7 +2677,7 @@
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr">
         <is>
-          <t>SET UP ON REG #1</t>
+          <t>*IL Meet is 4:15 am at IL Office</t>
         </is>
       </c>
       <c r="W40" t="inlineStr"/>
@@ -2763,7 +2758,7 @@
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr">
         <is>
-          <t>*IL Meet is 4:15 am at IL Office</t>
+          <t>4:00 am meet for Sarah &amp; Aivy at Wayside Park</t>
         </is>
       </c>
       <c r="W41" t="inlineStr"/>
@@ -2836,11 +2831,7 @@
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr">
-        <is>
-          <t>4:00 am meet for Sarah &amp; Aivy at Wayside Park</t>
-        </is>
-      </c>
+      <c r="V42" t="inlineStr"/>
       <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
@@ -2911,9 +2902,21 @@
         </is>
       </c>
       <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr"/>
-      <c r="W43" t="inlineStr"/>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
     </row>
@@ -2980,17 +2983,17 @@
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Aivy</t>
         </is>
       </c>
       <c r="W44" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store w/ Sarah</t>
         </is>
       </c>
       <c r="X44" t="inlineStr"/>
@@ -3058,17 +3061,18 @@
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>Aivy</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="W45" t="inlineStr">
         <is>
-          <t>@ Store w/ Sarah</t>
+          <t>Driver 1/2
+Gray Van</t>
         </is>
       </c>
       <c r="X45" t="inlineStr"/>
@@ -3122,18 +3126,17 @@
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="W46" t="inlineStr">
         <is>
-          <t>Driver 1/2
-Gray Van</t>
+          <t>Rx</t>
         </is>
       </c>
       <c r="X46" t="inlineStr"/>
@@ -3190,17 +3193,18 @@
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="W47" t="inlineStr">
         <is>
-          <t>Rx</t>
+          <t>Driver 1/2
+Gray Van</t>
         </is>
       </c>
       <c r="X47" t="inlineStr"/>
@@ -3262,20 +3266,15 @@
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="W48" t="inlineStr">
-        <is>
-          <t>Driver 1/2
-Gray Van</t>
-        </is>
-      </c>
+          <t>Lorena</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
     </row>
@@ -3334,12 +3333,12 @@
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>Lorena</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="W49" t="inlineStr"/>
@@ -3401,15 +3400,19 @@
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="W50" t="inlineStr"/>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>Driver</t>
+        </is>
+      </c>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
     </row>
@@ -3468,17 +3471,18 @@
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="W51" t="inlineStr">
         <is>
-          <t>Driver</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="X51" t="inlineStr"/>
@@ -3536,18 +3540,18 @@
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="W52" t="inlineStr">
         <is>
           <t>@ Store,
-Trainer</t>
+Supv Rx</t>
         </is>
       </c>
       <c r="X52" t="inlineStr"/>
@@ -3604,18 +3608,18 @@
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="W53" t="inlineStr">
         <is>
           <t>@ Store,
-Supv Rx</t>
+Trainer</t>
         </is>
       </c>
       <c r="X53" t="inlineStr"/>
@@ -3652,18 +3656,17 @@
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="W54" t="inlineStr">
         <is>
-          <t>@ Store,
-Trainer</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X54" t="inlineStr"/>
@@ -3716,17 +3719,18 @@
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="W55" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+4th Scan, work w/ Jerry</t>
         </is>
       </c>
       <c r="X55" t="inlineStr"/>
@@ -3788,18 +3792,17 @@
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="W56" t="inlineStr">
         <is>
-          <t>@ Store,
-4th Scan, work w/ Jerry</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X56" t="inlineStr"/>
@@ -3852,17 +3855,18 @@
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Stephanie</t>
         </is>
       </c>
       <c r="W57" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Until 10:00</t>
         </is>
       </c>
       <c r="X57" t="inlineStr"/>
@@ -3907,18 +3911,18 @@
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="W58" t="inlineStr">
         <is>
           <t>@ Store,
-Until 10:00</t>
+2nd week, work w/ Carlie</t>
         </is>
       </c>
       <c r="X58" t="inlineStr"/>
@@ -3961,22 +3965,9 @@
       <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="V59" t="inlineStr">
-        <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="W59" t="inlineStr">
-        <is>
-          <t>@ Store,
-2nd week, work w/ Carlie</t>
-        </is>
-      </c>
+      <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr"/>
       <c r="Y59" t="inlineStr"/>
     </row>
@@ -4061,7 +4052,11 @@
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr"/>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6:00 AM START </t>
+        </is>
+      </c>
       <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
@@ -4106,7 +4101,7 @@
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr">
         <is>
-          <t xml:space="preserve">6:00 AM START </t>
+          <t xml:space="preserve">DC5-FINANCIAL  </t>
         </is>
       </c>
       <c r="W62" t="inlineStr"/>
@@ -4153,7 +4148,7 @@
       <c r="U63" t="inlineStr"/>
       <c r="V63" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL  </t>
+          <t>ROTE OIL #14 TREVOR (CITGO)</t>
         </is>
       </c>
       <c r="W63" t="inlineStr"/>
@@ -4217,7 +4212,7 @@
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr">
         <is>
-          <t>ROTE OIL #14 TREVOR (CITGO)</t>
+          <t>12617 ANTIOCH RD</t>
         </is>
       </c>
       <c r="W64" t="inlineStr"/>
@@ -4277,7 +4272,7 @@
       <c r="U65" t="inlineStr"/>
       <c r="V65" t="inlineStr">
         <is>
-          <t>12617 ANTIOCH RD</t>
+          <t>https://goo.gl/maps/xA9YMzPGc6Vhxi5r8</t>
         </is>
       </c>
       <c r="W65" t="inlineStr"/>
@@ -4328,7 +4323,7 @@
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/xA9YMzPGc6Vhxi5r8</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="W66" t="inlineStr"/>
@@ -4383,7 +4378,7 @@
       <c r="U67" t="inlineStr"/>
       <c r="V67" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W67" t="inlineStr"/>
@@ -4438,7 +4433,7 @@
       <c r="U68" t="inlineStr"/>
       <c r="V68" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>ROTE OIL #13 TREVOR (BP)</t>
         </is>
       </c>
       <c r="W68" t="inlineStr"/>
@@ -4481,7 +4476,7 @@
       <c r="U69" t="inlineStr"/>
       <c r="V69" t="inlineStr">
         <is>
-          <t>ROTE OIL #13 TREVOR (BP)</t>
+          <t>12511 ANTIOCH RD</t>
         </is>
       </c>
       <c r="W69" t="inlineStr"/>
@@ -4524,7 +4519,7 @@
       <c r="U70" t="inlineStr"/>
       <c r="V70" t="inlineStr">
         <is>
-          <t>12511 ANTIOCH RD</t>
+          <t>https://goo.gl/maps/iu3xzNwgJ32esP5RA</t>
         </is>
       </c>
       <c r="W70" t="inlineStr"/>
@@ -4570,11 +4565,7 @@
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr"/>
-      <c r="V71" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/iu3xzNwgJ32esP5RA</t>
-        </is>
-      </c>
+      <c r="V71" t="inlineStr"/>
       <c r="W71" t="inlineStr"/>
       <c r="X71" t="inlineStr"/>
       <c r="Y71" t="inlineStr"/>
@@ -4616,9 +4607,21 @@
       <c r="R72" t="inlineStr"/>
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
-      <c r="U72" t="inlineStr"/>
-      <c r="V72" t="inlineStr"/>
-      <c r="W72" t="inlineStr"/>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X72" t="inlineStr"/>
       <c r="Y72" t="inlineStr"/>
     </row>
@@ -4661,17 +4664,17 @@
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="W73" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X73" t="inlineStr"/>
@@ -4714,21 +4717,9 @@
       <c r="R74" t="inlineStr"/>
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr"/>
-      <c r="U74" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="V74" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="W74" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U74" t="inlineStr"/>
+      <c r="V74" t="inlineStr"/>
+      <c r="W74" t="inlineStr"/>
       <c r="X74" t="inlineStr"/>
       <c r="Y74" t="inlineStr"/>
     </row>
@@ -4789,7 +4780,11 @@
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr"/>
-      <c r="V76" t="inlineStr"/>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="W76" t="inlineStr"/>
       <c r="X76" t="inlineStr"/>
       <c r="Y76" t="inlineStr"/>
@@ -4826,7 +4821,7 @@
       <c r="U77" t="inlineStr"/>
       <c r="V77" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W77" t="inlineStr"/>
@@ -4865,7 +4860,7 @@
       <c r="U78" t="inlineStr"/>
       <c r="V78" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>FESTIVAL #2695, NEW LONDON - LIFO</t>
         </is>
       </c>
       <c r="W78" t="inlineStr"/>
@@ -4904,7 +4899,7 @@
       <c r="U79" t="inlineStr"/>
       <c r="V79" t="inlineStr">
         <is>
-          <t>FESTIVAL #2695, NEW LONDON - LIFO</t>
+          <t>308 N SHAWANO ST</t>
         </is>
       </c>
       <c r="W79" t="inlineStr"/>
@@ -4943,7 +4938,7 @@
       <c r="U80" t="inlineStr"/>
       <c r="V80" t="inlineStr">
         <is>
-          <t>308 N SHAWANO ST</t>
+          <t>https://goo.gl/maps/zqprqLmVpCzdH3s86</t>
         </is>
       </c>
       <c r="W80" t="inlineStr"/>
@@ -4980,11 +4975,7 @@
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="inlineStr"/>
-      <c r="V81" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/zqprqLmVpCzdH3s86</t>
-        </is>
-      </c>
+      <c r="V81" t="inlineStr"/>
       <c r="W81" t="inlineStr"/>
       <c r="X81" t="inlineStr"/>
       <c r="Y81" t="inlineStr"/>
@@ -5014,9 +5005,21 @@
       <c r="R82" t="inlineStr"/>
       <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr"/>
-      <c r="U82" t="inlineStr"/>
-      <c r="V82" t="inlineStr"/>
-      <c r="W82" t="inlineStr"/>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>Jeremiah</t>
+        </is>
+      </c>
+      <c r="W82" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X82" t="inlineStr"/>
       <c r="Y82" t="inlineStr"/>
     </row>
@@ -5059,17 +5062,17 @@
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="W83" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X83" t="inlineStr"/>
@@ -5110,12 +5113,12 @@
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="W84" t="inlineStr">
@@ -5161,12 +5164,12 @@
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="W85" t="inlineStr">
@@ -5212,12 +5215,12 @@
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="W86" t="inlineStr">
@@ -5271,12 +5274,12 @@
       <c r="T87" t="inlineStr"/>
       <c r="U87" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="W87" t="inlineStr">
@@ -5322,12 +5325,12 @@
       <c r="T88" t="inlineStr"/>
       <c r="U88" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="W88" t="inlineStr">
@@ -5361,12 +5364,12 @@
       <c r="T89" t="inlineStr"/>
       <c r="U89" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="W89" t="inlineStr">
@@ -5400,12 +5403,12 @@
       <c r="T90" t="inlineStr"/>
       <c r="U90" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="W90" t="inlineStr">
@@ -5443,12 +5446,12 @@
       <c r="T91" t="inlineStr"/>
       <c r="U91" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="W91" t="inlineStr">
@@ -5486,12 +5489,12 @@
       <c r="T92" t="inlineStr"/>
       <c r="U92" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="W92" t="inlineStr">
@@ -5529,12 +5532,12 @@
       <c r="T93" t="inlineStr"/>
       <c r="U93" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Serena</t>
         </is>
       </c>
       <c r="W93" t="inlineStr">
@@ -5572,12 +5575,12 @@
       <c r="T94" t="inlineStr"/>
       <c r="U94" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>Serena</t>
+          <t>Terri</t>
         </is>
       </c>
       <c r="W94" t="inlineStr">
@@ -5613,21 +5616,9 @@
       <c r="R95" t="inlineStr"/>
       <c r="S95" t="inlineStr"/>
       <c r="T95" t="inlineStr"/>
-      <c r="U95" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="V95" t="inlineStr">
-        <is>
-          <t>Terri</t>
-        </is>
-      </c>
-      <c r="W95" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U95" t="inlineStr"/>
+      <c r="V95" t="inlineStr"/>
+      <c r="W95" t="inlineStr"/>
       <c r="X95" t="inlineStr"/>
       <c r="Y95" t="inlineStr"/>
     </row>

--- a/10-20-24 to 10-26-24 Madison Schedule.xlsx
+++ b/10-20-24 to 10-26-24 Madison Schedule.xlsx
@@ -5067,7 +5067,7 @@
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Josie</t>
         </is>
       </c>
       <c r="W83" t="inlineStr">
@@ -5118,7 +5118,7 @@
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="W84" t="inlineStr">
@@ -5169,7 +5169,7 @@
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="W85" t="inlineStr">
@@ -5220,7 +5220,7 @@
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="W86" t="inlineStr">
@@ -5279,7 +5279,7 @@
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="W87" t="inlineStr">
@@ -5330,7 +5330,7 @@
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="W88" t="inlineStr">
@@ -5369,7 +5369,7 @@
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="W89" t="inlineStr">
@@ -5408,7 +5408,7 @@
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="W90" t="inlineStr">
@@ -5451,7 +5451,7 @@
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="W91" t="inlineStr">
@@ -5494,7 +5494,7 @@
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="W92" t="inlineStr">
@@ -5537,7 +5537,7 @@
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>Serena</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="W93" t="inlineStr">
@@ -5580,7 +5580,7 @@
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>Terri</t>
+          <t>Serena</t>
         </is>
       </c>
       <c r="W94" t="inlineStr">
@@ -5616,9 +5616,21 @@
       <c r="R95" t="inlineStr"/>
       <c r="S95" t="inlineStr"/>
       <c r="T95" t="inlineStr"/>
-      <c r="U95" t="inlineStr"/>
-      <c r="V95" t="inlineStr"/>
-      <c r="W95" t="inlineStr"/>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>Terri</t>
+        </is>
+      </c>
+      <c r="W95" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X95" t="inlineStr"/>
       <c r="Y95" t="inlineStr"/>
     </row>
